--- a/Data/Transitions/19571960Translation.xlsx
+++ b/Data/Transitions/19571960Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="584">
   <si>
     <t>id</t>
   </si>
@@ -469,7 +469,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -670,7 +670,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1700,9 +1700,6 @@
   </si>
   <si>
     <t>{226.0: 0.9845670939053099, 216.0: 0.015432906094690033}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{263.0: 1.0}</t>
@@ -3779,7 +3776,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>562</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3999,7 +3996,7 @@
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4109,7 +4106,7 @@
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4329,7 +4326,7 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4516,7 +4513,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>562</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4560,7 +4557,7 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5000,7 +4997,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5055,7 +5052,7 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5528,7 +5525,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5792,7 +5789,7 @@
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -5968,7 +5965,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -5990,7 +5987,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6001,7 +5998,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6320,7 +6317,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6727,7 +6724,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7123,7 +7120,7 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7431,7 +7428,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -7651,7 +7648,7 @@
         <v>503</v>
       </c>
       <c r="C502" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -7706,7 +7703,7 @@
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -7717,7 +7714,7 @@
         <v>509</v>
       </c>
       <c r="C508" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -7827,7 +7824,7 @@
         <v>519</v>
       </c>
       <c r="C518" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -7970,7 +7967,7 @@
         <v>532</v>
       </c>
       <c r="C531" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -7992,7 +7989,7 @@
         <v>534</v>
       </c>
       <c r="C533" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -8047,7 +8044,7 @@
         <v>539</v>
       </c>
       <c r="C538" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="539" spans="1:3">
